--- a/data/trans_orig/P36B07_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B07_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B349312E-6E17-4E2F-9626-BE9FC11B9B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD0EC2DD-AB69-4D42-9D8A-FA7539CC025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEC09CBB-B112-4727-B9E0-9B69538A5867}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E8730EF-E192-4694-A57D-5D67EC3F450B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>16,62%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>83,38%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>88,81%</t>
   </si>
   <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>20,27%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>19,4%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>81,42%</t>
   </si>
   <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>80,6%</t>
   </si>
   <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>18,66%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>11,68%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>88,32%</t>
   </si>
   <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>16,45%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>15,02%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>84,98%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,49 @@
     <t>23,28%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
+    <t>29,52%</t>
   </si>
   <si>
     <t>12,05%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>76,72%</t>
   </si>
   <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>70,48%</t>
   </si>
   <si>
     <t>87,95%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +359,55 @@
     <t>14,31%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>92,79%</t>
   </si>
   <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>89,23%</t>
   </si>
   <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,49 +416,55 @@
     <t>19,71%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>19,41%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>80,29%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>80,59%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,19 +473,19 @@
     <t>57,89%</t>
   </si>
   <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
   </si>
   <si>
     <t>53,36%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
   </si>
   <si>
     <t>55,61%</t>
@@ -494,31 +494,31 @@
     <t>48,83%</t>
   </si>
   <si>
-    <t>58,37%</t>
+    <t>58,43%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
   </si>
   <si>
     <t>44,39%</t>
   </si>
   <si>
-    <t>41,63%</t>
+    <t>41,57%</t>
   </si>
   <si>
     <t>51,17%</t>
@@ -527,55 +527,55 @@
     <t>28,61%</t>
   </si>
   <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF2F6DF-1728-4C21-B245-314B1A7E292B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4405D758-077F-4277-87A5-592EF82DC05C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1737,10 +1737,10 @@
         <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -1749,13 +1749,13 @@
         <v>27887</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -1764,13 +1764,13 @@
         <v>73690</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1785,13 @@
         <v>150944</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7">
         <v>433</v>
@@ -1800,13 +1800,13 @@
         <v>203609</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>652</v>
@@ -1815,13 +1815,13 @@
         <v>354554</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,7 +1877,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1889,13 +1889,13 @@
         <v>39679</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -1904,13 +1904,13 @@
         <v>19861</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -1919,13 +1919,13 @@
         <v>59540</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1940,13 +1940,13 @@
         <v>237544</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>430</v>
@@ -1955,13 +1955,13 @@
         <v>255761</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>754</v>
@@ -1970,13 +1970,13 @@
         <v>493305</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,7 +2032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2044,13 +2044,13 @@
         <v>123168</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>160</v>
@@ -2059,13 +2059,13 @@
         <v>125313</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>265</v>
@@ -2074,13 +2074,13 @@
         <v>248480</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2095,13 @@
         <v>501573</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>797</v>
@@ -2110,13 +2110,13 @@
         <v>677941</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M23" s="7">
         <v>1288</v>
